--- a/01.Snapshot/ADM/adm_model_version_param_config.xlsx
+++ b/01.Snapshot/ADM/adm_model_version_param_config.xlsx
@@ -2730,25 +2730,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
-    <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
-    <xsd:import namespace="737540b7-7beb-44e9-ac50-e0c53972ff5f"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B42F7B4AC2B9FB47A2173F853ED4E5E6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2554e4bc6a999e76a3fe33ccf7d06d9a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb2bd482-b9c2-4538-9042-cb52d8f965c5" xmlns:ns3="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1797702264ec573e89d227db9e0e6766" ns2:_="" ns3:_="">
+    <xsd:import namespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5"/>
+    <xsd:import namespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2756,53 +2757,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb2bd482-b9c2-4538-9042-cb52d8f965c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="737540b7-7beb-44e9-ac50-e0c53972ff5f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2821,11 +2779,59 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d0cfb5c-b2c7-4d6c-9108-92e53811e18c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6dbcb339-0d13-475d-8eb4-ac78b8faaaf8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2938,7 +2944,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170681D5-0010-42F1-A7FB-6DD2A23D56B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B429DCD-29AC-4B79-97E3-9DEA74FF6AA5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
